--- a/Graficas 2.xlsx
+++ b/Graficas 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\OneDrive\Escritorio\CC2016-HDT5\CC2016-HDT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BED0B9-818D-4205-8F59-08A48370AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6AD06A-70EC-412C-85D3-DA2F7EB03B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A30748E-8EAB-42ED-96FB-C031261F4C2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Intervalo</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>% Desviacion estandar</t>
+  </si>
+  <si>
+    <t>¡</t>
   </si>
 </sst>
 </file>
@@ -309,46 +312,22 @@
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
-              <c:numRef>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                    <c16:filteredLitCache>
-                      <c:numCache>
-                        <c:ptCount val="0"/>
-                      </c:numCache>
-                    </c16:filteredLitCache>
-                  </c:ext>
-                </c:extLst>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
             </c:plus>
             <c:minus>
-              <c:numRef>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                    <c16:filteredLitCache>
-                      <c:numCache>
-                        <c:ptCount val="0"/>
-                      </c:numCache>
-                    </c16:filteredLitCache>
-                  </c:ext>
-                </c:extLst>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -708,7 +687,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -730,7 +709,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Hoja1!$B$2:$B$6</c15:sqref>
@@ -763,7 +742,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Hoja1!$B$2:$B$16</c15:sqref>
@@ -885,7 +864,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -907,7 +886,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Hoja1!$B$2:$B$6</c15:sqref>
@@ -940,7 +919,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>Hoja1!$D$2:$D$16</c15:sqref>
@@ -1504,46 +1483,22 @@
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
-              <c:numRef>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                    <c16:filteredLitCache>
-                      <c:numCache>
-                        <c:ptCount val="0"/>
-                      </c:numCache>
-                    </c16:filteredLitCache>
-                  </c:ext>
-                </c:extLst>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
             </c:plus>
             <c:minus>
-              <c:numRef>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
-                    <c16:filteredLitCache>
-                      <c:numCache>
-                        <c:ptCount val="0"/>
-                      </c:numCache>
-                    </c16:filteredLitCache>
-                  </c:ext>
-                </c:extLst>
-                <c:f/>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -1832,7 +1787,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$B$1</c15:sqref>
@@ -1909,7 +1864,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1999,7 +1954,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-667A-4583-9B89-8CA1BC7959C1}"/>
                   </c:ext>
@@ -2012,7 +1967,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$D$1</c15:sqref>
@@ -2089,7 +2044,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2179,7 +2134,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-667A-4583-9B89-8CA1BC7959C1}"/>
                   </c:ext>
@@ -2192,7 +2147,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$E$1</c15:sqref>
@@ -2269,7 +2224,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2359,7 +2314,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-667A-4583-9B89-8CA1BC7959C1}"/>
                   </c:ext>
@@ -3002,7 +2957,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$B$1</c15:sqref>
@@ -3108,7 +3063,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0FE3-4365-8646-97349D8B2D6E}"/>
                   </c:ext>
@@ -3121,7 +3076,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$D$1</c15:sqref>
@@ -3227,7 +3182,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0FE3-4365-8646-97349D8B2D6E}"/>
                   </c:ext>
@@ -3240,7 +3195,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$E$1</c15:sqref>
@@ -3346,7 +3301,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0FE3-4365-8646-97349D8B2D6E}"/>
                   </c:ext>
@@ -6415,16 +6370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349314</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>79018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>349315</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6451,16 +6406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1301750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>96546</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>592666</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184451</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>182917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6487,16 +6442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1132417</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>432621</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>529165</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1539981</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6841,10 +6796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F77CED-A009-47B7-A877-7C86597808A1}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="111" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7142,6 +7097,11 @@
         <v>4.41</v>
       </c>
     </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
